--- a/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/qwen_yanzi_evaluated.xlsx
+++ b/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/qwen_yanzi_evaluated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,11 @@
           <t>同学们好啊，请坐，</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，"同学们好啊，请坐" 是老师对学生们的问候和常规上课前的指示，让学生们准备好上课。虽然这句话表达了对学生的友好和课堂开始的信号，但它本身并不直接指示学生要开展一个特定的课堂活动，如发言、展示或练习等。
@@ -508,7 +512,11 @@
           <t>感谢齐森的分享。那么我们回顾郑振铎先生笔下的燕子，是有一身乌黑的羽毛，</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那么我们回顾郑振铎先生笔下的燕子，是有一身乌黑的羽毛”体现出老师在引导学生回忆之前学过的文学作品中的内容，但并没有直接发起一个明确的课堂活动。这段话更像是对课程内容的回顾，没有包含明显的指令性语言，如“请”、“来”、“做”等，来指示学生执行某种特定的课堂活动，如发言、展示或练习等。
@@ -536,7 +544,11 @@
           <t>好，同学们，今天让我们再次走进第一单元。第二课，燕子，</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，同学们，今天让我们再次走进第一单元”体现出老师引导学生进入新的教学内容，而“第二课，燕子”是对即将学习的课程内容的介绍。这段话并没有明确指示学生要开展具体的课堂活动，如发言、展示或练习等。因此，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -563,7 +575,11 @@
           <t>准备，好三二一吹拂赶集聚拢，吹拂赶集聚拢吹拂赶集聚拢，</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>同步练习</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“准备，好三二一吹拂赶集聚拢，吹拂赶集聚拢吹拂赶集聚拢”体现出老师在引导学生进行某种集体动作或者活动，可能是某种表演、游戏或者是动作操练，其中“三二一”是一个典型的口令，用来指示学生在倒计时结束后统一执行某个动作。综合上述整段话的分析过程，虽然没有明确指出是哪种具体的课堂活动，但根据“吹拂赶集聚拢”这个动作指令，可以推测这是一个需要全体学生整齐划一执行的动作，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”。因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -590,7 +606,11 @@
           <t>形成偶尔纤细，形成偶尔纤细，</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，"形成偶尔纤细"这部分内容重复出现，但没有明确的课堂活动指示或者与学生课堂行为相关的特征短语。因此，无法识别出特定的课堂活动类别。
@@ -617,7 +637,11 @@
           <t>相信大家都出色的完成了第一关。那么我们来看看第二关，谁来读一读，谁要求，律人。</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“谁来读一读，谁要求，律人”体现出老师发起了一个开展课堂活动的指令，其中，“谁来读一读”体现出老师邀请一个学生来朗读，而“谁要求，律人”这一句虽然字面上可能不太清晰，但可以推测老师是在询问或要求一个学生来主导或规范其他人的行为，这可能是一个角色分配或者展示的活动。综合上述整段话的分析过程，这个课堂活动可能涉及到“个体发言”（朗读）和“多人展示”（主导或规范他人），但具体活动形式不太明确。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”和“多人展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -625,7 +649,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -644,7 +668,11 @@
           <t>好，请坐，听懂了吗？</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”好，请坐，听懂了吗？“体现出老师在确认学生是否理解了之前讲解的内容，没有明确的指令指向新的课堂活动。综合上述整段话的分析过程，这段话语中没有提到任何预设的课堂活动，因此无法预测出课堂活动类别。
@@ -671,7 +699,11 @@
           <t>你来分享一下，你找到了哪些景物，</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你来分享一下，你找到了哪些景物”体现出老师发起了一个开展课堂活动的指令，其中，“你来分享一下”体现出老师邀请一个学生开展活动，”你“可能是被邀请学生的名字，进一步地，“你找到了哪些景物”体现出该学生被要求用话语来分享自己的观察结果。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -679,7 +711,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -698,7 +730,11 @@
           <t>好，请坐谁再来说一说，这两位同学说的都对谁来重复一遍，</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“谁再来说一说”体现出老师发起了一个开展课堂活动的指令，邀请一个学生用话语来表述自己的想法或观点。进一步地，“这两位同学说的都对”意味着老师对之前两位同学的回答表示认可，同时，“谁来重复一遍”则表明老师希望另一位学生重复前面同学的正确答案或观点。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -706,7 +742,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -725,7 +761,11 @@
           <t>构成了我们的春光燕子图。那这这幅美丽的春光图让你脑海中产生了什么样的画面呢？你可以根据一个词或几个词，或者把你脑海中想象的说出来。陈梦然，</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你可以根据一个词或几个词，或者把你脑海中想象的说出来”体现出老师发起了一个开展课堂活动的指令，其中，“你”可能指的是陈梦然，也可能是全体学生，考虑到前面提到“陈梦然”，这里很可能是针对陈梦然的个体活动。同时，”把你脑海中想象的说出来“体现出老师要求陈梦然用话语来表达自己的想法。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -737,7 +777,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -756,7 +796,11 @@
           <t>非常好，请坐这些景物都怎么样了，</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“非常好，请坐”体现出老师对学生表现的肯定，然后“这些景物都怎么样了”是对学生提问，要求学生对景物的变化进行描述或分析。这个提问活动可以被视为鼓励一个或多个学生用语言来表达他们的理解和观察，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -783,7 +827,11 @@
           <t>你们知道什么是赶集吗，</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你们知道什么是赶集吗”体现出老师发起了一个开展课堂活动的指令，其中，“你们”体现出这个课堂活动是由全体学生共同参与的。这句话邀请学生用话语来分享他们对“赶集”的理解和知识，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -791,7 +839,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -810,7 +858,11 @@
           <t>嗯，好，请坐需要的物品看人山人海呀。那么在我们的春光图里，有这么多人，没有没有他们是怎样的郭成，你感受到了什么？</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那么在我们的春光图里，有这么多人，没有没有他们是怎样的郭成，你感受到了什么？”体现出老师发起了一个开展课堂活动的指令。首先，”那么在我们的春光图里，有这么多人，没有没有他们是怎样的“是对课堂内容的描述，然后，“郭成，你感受到了什么？”中“郭成”可能是被邀请学生的名字，而“你感受到了什么？”体现出老师邀请郭成用话语来表达自己的感受。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -818,7 +870,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -837,7 +889,11 @@
           <t>嗯，你仿佛看到了烂漫无比的春天。好，请坐谁再来谈一谈，还有什么感受这什么样的气氛？我们看到这两幅图都是怎样的氛围啊？</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“嗯，你仿佛看到了烂漫无比的春天”是对学生的回应，接着“好，请坐谁再来谈一谈，还有什么感受这什么样的气氛？”体现出老师发起了一个开展课堂活动的指令，邀请学生分享他们的感受和对氛围的理解。进一步地，“我们看到这两幅图都是怎样的氛围啊？”进一步引导学生思考并表达对图片氛围的解读。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -849,7 +905,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -868,7 +924,11 @@
           <t>气氛是非常热闹。好的，好好，请坐。那你能带着这样欢快的热闹的感觉，把这段读出来吗？读出热闹的感觉啊，来试一试关。</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那你能带着这样欢快的热闹的感觉，把这段读出来吗？”体现出老师发起了一个开展课堂活动的指令。其中，“你”指代一个学生，要求其朗读并传达出欢快热闹的情感。这个活动是老师邀请一个学生进行的，而且是通过朗读来展示情感，符合“个体展示”的特征。因此，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -899,7 +959,11 @@
           <t>由天上洒落着千条万条的柔柳，红的白的黄的花青的草绿的叶都像赶集似的聚拢来形成了烂漫无比的春天怎么样，</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语描述了一幅春天的景象，但没有明确的指令或活动指示。虽然提到了“像赶集似的聚拢来”，但这并不直接对应于课堂活动中学生的行为。因此，这段话中无法识别出预设的课堂活动类别。
@@ -926,7 +990,11 @@
           <t>你读的非常好。那同学们，这个时候谁又加入了呢？小燕子们小燕子来了，小燕子来会会为这个春光图增添哪些生趣呢？我们来一起读这一段，</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”你读的非常好“是对前面一位同学的表扬，然后“那同学们，这个时候谁又加入了呢？”是引导学生思考新的问题，接着“小燕子们小燕子来了，小燕子来会会为这个春光图增添哪些生趣呢？”是在描述场景并引导学生关注小燕子带来的变化。最后，“我们来一起读这一段”体现了老师要求全体学生参与朗读活动，这里的“一起读”表明是集体性的、整齐划一的朗读行为。综合上述整段话的分析过程，这个课堂活动是老师邀请全体学生参与、且整齐划一地开展的朗读活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -934,7 +1002,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -953,7 +1021,11 @@
           <t>燕子来了，让这幅图怎么样了，罗伟彤，</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“燕子来了，让这幅图怎么样了”是老师在引导学生思考燕子的加入对画面的影响，而“罗伟彤”可能是老师在点名让这名学生回答问题或分享观点。这句话中没有明显的指令去启动一个特定的课堂活动，如“独立练习”、“小组学习”等。同时，也没有足够的信息去判断学生是否需要“齐读”、“齐写”或“听写”。综合分析，这段话语更像是老师在邀请学生进行“个体发言”，但没有明确的开始指令，因为学生可能已经在思考或准备回答，也可能还没开始。所以，无法确定课堂活动的进行状态。
@@ -961,7 +1033,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -980,7 +1052,11 @@
           <t>让这个画面更怎么样了，做到了更有活力了。很好，你们都感受到了燕子加入了这幅图中，为这幅图增添了很多生趣。哎，现在我们开开始闯第三关，</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>集体未知</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“现在我们开始闯第三关”体现出老师发出了一个课堂活动的指令，其中，“我们”体现出该课堂活动是由学生集体参与的；“闯第三关”只体现出老师要求学生参与一个有闯关或比赛性质的活动，但是没有明确说明该活动的具体内容，没有进一步用于判断是属于“独立练习”、“学生齐读”、“学生齐写”、”学生听写“中哪一种由学生全体参与的课堂活动的特征。综合上述整段话的分析过程，这个课堂活动是由学生集体参与、但无法判定具体的课堂活动，符合”集体未知“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”。因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -988,7 +1064,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1007,7 +1083,11 @@
           <t>你们准备好了吗？</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>集体未知</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你们准备好了吗？”是老师在询问全体学生是否准备好开始接下来的活动，但没有明确指出具体的课堂活动内容。综合分析，虽然可以推测老师即将开始新的教学环节，但无法确定是哪种预设的课堂活动类型。
@@ -1015,7 +1095,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1034,7 +1114,11 @@
           <t>有的同学读完了，已经开始在写任务单了，</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“有的同学读完了”表明第一部分同学完成了读书任务，可以理解为全体学生都参与读书活动，还有一部分学生还处于读书任务中，这体现了全体学生都参与了课堂活动，且学生的任务进度不一致，进一步地，“已经开始在写任务单了”表明完成读书任务的第一部分学生开始写任务单，更说明了学生进度不一致。因而，整个课堂活动由全体学生共同参与、且是独立进行的。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征，所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为这段话体现出老师在提醒学生课堂活动的进展状态，因此课堂活动的进行状态为“进行中”。
@@ -1042,7 +1126,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1061,7 +1145,11 @@
           <t>不易写字的姿势，看到罗美彤写的非常认真啊，一笔一划书写的非常的工整，</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师提到了学生罗美彤写字的认真态度，但并没有发出任何明确的课堂活动指令，如发言、展示、练习等。因此，无法识别出老师说完这段话后要开展的预设课堂活动类别。
@@ -1088,7 +1176,11 @@
           <t>那现在和你的小伙伴交流交流，你的脑海中浮现了，怎样的画面开始交流，</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>小组学习</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那现在和你的小伙伴交流交流”体现出老师发起了一个开展课堂活动的指令，其中，“和你的小伙伴交流交流”体现出老师要求学生以小组或两人一组的形式进行讨论，进行交流。这符合“小组学习”的特征。进一步地，“你的脑海中浮现了，怎样的画面开始交流”表明老师希望学生分享自己心中的想法，即通过讨论来分享各自的想法和理解。综合上述整段话的分析过程，这个课堂活动是学生以小组形式通过互相讨论来达到自主学习的目的，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1096,7 +1188,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1115,7 +1207,11 @@
           <t>好时间到，谁来分享一下你的收获，来分享一下你的收获。韩心怡，</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“谁来分享一下你的收获”和“来分享一下你的收获”两次提到“分享”，这表明老师邀请学生分享他们的学习成果。进一步地，”韩心怡“被点名，意味着老师指定韩心怡同学来分享她的收获。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1123,7 +1219,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1142,7 +1238,11 @@
           <t>用手沾了一下水面，有没有质疑到我来用哪儿粘的水面？你来找我来走。</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>个体未知</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你来找我来走”这部分，虽然有“你”这个词，但没有明确指出是指一个学生还是全体学生，也没有明确的课堂活动特征，如发言、书写、朗读等。因此，无法准确识别出一个预设的课堂活动类别。
@@ -1169,7 +1269,11 @@
           <t>好，请坐。希望你在读的时候再认真仔细一些。那同学们，韩信怡找到了斜飞沾，还有鸡，还有吗？</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，请坐”体现了老师对学生行为的指示，但并不是课堂活动的启动。“希望你在读的时候再认真仔细一些”是对某位学生的建议，但没有明确指出课堂活动。“那同学们，韩信怡找到了斜飞沾，还有鸡，还有吗？”这句话中，老师在询问学生是否还有其他发现，但没有具体说明学生接下来要做什么，没有明显的课堂活动特征。
@@ -1197,7 +1301,11 @@
           <t>好略这个词，你想谈谈你的感受吗，</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你想谈谈你的感受吗”体现出老师发起了一个开展课堂活动的指令，邀请一个学生分享自己的感受。这通常涉及到个体的口头表达，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1205,7 +1313,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1224,7 +1332,11 @@
           <t>横略能说明他怎么样速，应该是快，那么瞻。我们说明他的身体很轻盈。没错，那如果我想换一换，换成其他词，你们觉得能不能达到这样的效果？我们试着来读一读男生，</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“我们试着来读一读男生”体现出老师发起了一个开展课堂活动的指令。这里的“我们”通常指的是老师和学生共同参与，而“试着来读一读”中的“读一读”是指朗读活动，再结合“男生”，老师要求男生们参与这个朗读活动。综合上述整段话的分析过程，这个课堂活动是由学生集体参与、且整齐划一地开展的朗读活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1236,7 +1348,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1255,7 +1367,11 @@
           <t>而不是激起水花明白。好，那么在这里通过这几个词，我们感受到了小燕子是怎样的？唉，它是轻巧的，轻快灵活的。现在啊请你试着读出燕子的轻快灵活。好吧？</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“现在啊请你试着读出燕子的轻快灵活”体现出老师发起了一个开展课堂活动的指令，其中，“请你试着读出”体现出老师邀请一个学生来朗读，同时“燕子的轻快灵活”是朗读的具体要求，即要读出燕子的特点。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且整齐划一地朗读的活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1263,7 +1379,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1282,7 +1398,11 @@
           <t>那同学们在我们学习前半部分的这个学习方法中，你有哪些收获呢？我们是通过什么样的方式方法来学习之前的这些部分呢？你能说一说吗？李新成，</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那同学们在我们学习前半部分的这个学习方法中，你有哪些收获呢？”体现出老师发起了一个开展课堂活动的指令，邀请全体学生思考他们在学习前半部分时的收获。进一步地，“我们是通过什么样的方式方法来学习之前的这些部分呢？”再次邀请学生思考学习方法，这同样是一个思考活动，是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。接着，“你能说一说吗？李新成”中，老师特别提到“李新成”，要求他来分享自己的想法，这体现了该学生被要求用话语来表达自己的观点，符合“个体发言”的特征。综合上述整段话的分析过程，这个课堂活动首先是全体学生参与的“独立练习”，然后是“个体发言”。
@@ -1294,7 +1414,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1313,7 +1433,11 @@
           <t>好，你通过圈一圈的方法来学习，请坐张鹤，</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，你通过圈一圈的方法来学习”这句话是老师对学生学习方法的肯定，其中的“好”字是对学生方法的认可，“你”是指特定的学生，可能是张鹤，而“请坐张鹤”意味着张鹤已经完成了某种活动，比如展示或回答问题，老师让他坐下。综合上述整段话的分析过程，这段话没有发起新的课堂活动，而是对之前活动的总结或结束。
@@ -1340,7 +1464,11 @@
           <t>来读文，那现在到了第四关了，你能用我们学习的以上的这些方法来解决这一关吗，好，可以啊，你们都说可以做到，那现在给你时间，请你自己来学习。第五，</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“来读文”体现出老师发起了一个开展课堂活动的指令，要求学生朗读文章。接下来，“那现在到了第四关了，你能用我们学习的以上的这些方法来解决这一关吗”表明老师让学生尝试运用学到的方法来解决一个问题，这可能是指定学生或全体学生进行实践操作的活动。再者，“好，可以啊，你们都说可以做到，那现在给你时间，请你自己来学习”这部分话中，“给你时间”和“请你自己来学习”体现出老师给予学生自我学习的时间和空间，这通常与独立练习的活动相符。最后，“第五”可能是在指示下一个环节或问题，但没有明确的活动类型。
@@ -1349,7 +1477,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1368,7 +1496,11 @@
           <t>你们觉得像不像像嗯这样的蓝天作为背景几根细线上面还有几个小黑点组成了我们的这样的什么，说了一幅有趣的画画，你感受到它的有趣了吗？再次体会再读。第五，自然段，</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”你们觉得像不像像嗯这样的蓝天作为背景几根细线上面还有几个小黑点组成了我们的这样的什么，说了一幅有趣的画画，你感受到它的有趣了吗？“体现出老师在引导学生思考并发表自己的看法，但没有明确的指令启动一个特定的课堂活动。接着，“再次体会再读。第五，自然段，”这句话，老师要求学生重新阅读第五自然段，这通常涉及到学生个体对文本的再次理解和感悟，但没有明确的指示是要求学生齐读、发言还是其他活动。综合上述整段话的分析过程，这段话语中虽然有让学生进行思考和阅读的成分，但无法确定具体的课堂活动类型，符合“集体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”。因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1395,7 +1527,11 @@
           <t>好，同学们，作者用这么优美的笔触来写小燕子来写春天，你读完了这篇课文，你有怎样的感受？你体会到了作者的情感是怎样的，韩鹏琪，</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你读完了这篇课文，你有怎样的感受？你体会到了作者的情感是怎样的”体现出老师发起了一个开展课堂活动的指令，邀请学生分享个人的阅读感受和对作者情感的理解。进一步地，”韩鹏琪“表明老师邀请了一个特定的学生，即韩鹏琪，来执行这个活动，这符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1403,7 +1539,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1422,7 +1558,11 @@
           <t>好，那在这里啊，作者运用了这么多美好的事物和笔触，去描写这篇课文。那现在啊请你找一找文中优美生动的语句，把它抄写在你们的任务单上。第六题，</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“请你找一找文中优美生动的语句，把它抄写在你们的任务单上”体现出老师发起了一个开展课堂活动的指令。首先，“请你”体现出老师邀请学生参与活动，而“优美生动的语句”指定了寻找的目标，这是一项阅读理解与抄写相结合的任务。进一步地，”把它抄写在你们的任务单上“中的”你们“表明这个任务是针对全体学生的，且“抄写”这一行为是个体独立完成的活动。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1434,7 +1574,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1453,7 +1593,11 @@
           <t>每一笔，提前完成的同学可以写下边的奖励任务，</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“每一笔”可能是指课堂上的练习或者任务，而“提前完成的同学可以写下边的奖励任务”这部分表明老师为提前完成任务的学生提供了额外的奖励任务。这体现出老师鼓励学生尽快完成当前的任务，并且为那些完成任务的学生提供了一个额外的、自愿参与的课堂活动。这个活动是针对个体的，因为只有提前完成的学生可以选择参与，而且是独立选择是否完成奖励任务，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1465,7 +1609,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1484,7 +1628,11 @@
           <t>大家一起抬头来欣赏一下这几位同学的书写，再来评一评，感觉怎么样，最喜欢哪一个，或者说你想评一评他们写的怎么样，有没有值得你学习的地方，或者是他还有哪里不足来说一说新年好，</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“大家一起抬头来欣赏一下这几位同学的书写”体现出老师发起了一个开展课堂活动的指令，其中，“大家一起”体现出这个课堂活动是老师邀请全体学生共同参与的。进一步地，“欣赏一下这几位同学的书写”和“再来评一评”体现出老师要求学生对展示的书写作品进行评价，这可能涉及到对书写技巧的讨论或者分享个人的看法，这符合“多人展示”的特征。同时，”感觉怎么样，最喜欢哪一个，或者说你想评一评他们写的怎么样，有没有值得你学习的地方，或者是他还有哪里不足来说一说“这部分，体现出老师鼓励学生发表个人的观点，这符合“个体发言”的特征。综合上述整段话的分析过程，这个课堂活动是由全体学生参与，包括对展示的书写作品进行集体欣赏和个体评价，符合“多人展示”和“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“多人展示”和“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1511,7 +1659,11 @@
           <t>希望其他同学能够向他们学习。好，那同学们，我们学习完了这篇课文，相信你一到三自然段应该已经都会背了吧。嗯，那不会不太会的同学，请你看着书会背的抬头看着我，我们来一起背一下，一到三自然段，</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”好，那同学们，我们学习完了这篇课文，相信你一到三自然段应该已经都会背了吧“体现出老师对学生的期望，希望他们能够背诵课文的前三个自然段。进一步地，”不会不太会的同学，请你看着书会背的抬头看着我，我们来一起背一下，一到三自然段“，这句话中，老师邀请不会或不太会背诵的同学看着书来准备背诵，同时邀请已经会背的同学抬头看着老师，这表明老师即将组织全班一起背诵课文的前三个自然段。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且整齐划一地开展的背诵活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”。因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1519,7 +1671,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
